--- a/0咪咕音乐/体验测试/音乐基础用例20210421.xlsx
+++ b/0咪咕音乐/体验测试/音乐基础用例20210421.xlsx
@@ -1523,9 +1523,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1590,6 +1590,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1597,8 +1612,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1613,30 +1635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,9 +1658,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,27 +1704,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1705,32 +1727,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1761,7 +1761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1785,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,25 +1911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,133 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,6 +2055,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2073,17 +2088,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2128,30 +2152,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2160,10 +2160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2172,16 +2172,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2190,115 +2190,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2728,8 +2728,8 @@
   <sheetPr/>
   <dimension ref="A1:GT183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.87962962962963" defaultRowHeight="15.6"/>
@@ -3015,7 +3015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.4" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="14.4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="11" t="s">
         <v>9</v>
@@ -3041,7 +3041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="14.4" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="11" t="s">
         <v>11</v>
@@ -3053,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="14.4" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -3065,7 +3065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="14.4" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="11" t="s">
         <v>15</v>
@@ -3077,7 +3077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.4" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="11" t="s">
         <v>17</v>
@@ -3125,7 +3125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.4" spans="1:4">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.4" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
@@ -3163,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="14.4" spans="1:4">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>33</v>
@@ -3175,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.4" spans="1:4">
       <c r="A16" s="18" t="s">
         <v>35</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.4" spans="1:4">
       <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
         <v>38</v>
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.4" spans="1:4">
       <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="14.4" spans="1:4">
       <c r="A19" s="18"/>
       <c r="B19" s="11" t="s">
         <v>43</v>
@@ -3227,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="14.4" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.4" spans="1:4">
       <c r="A30" s="18" t="s">
         <v>66</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="14.4" spans="1:4">
       <c r="A31" s="18"/>
       <c r="B31" s="11" t="s">
         <v>69</v>
@@ -3389,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" ht="14.4" spans="1:4">
       <c r="A33" s="18" t="s">
         <v>74</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" ht="14.4" spans="1:4">
       <c r="A34" s="18"/>
       <c r="B34" s="11" t="s">
         <v>77</v>
@@ -3415,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" ht="14.4" spans="1:4">
       <c r="A35" s="18" t="s">
         <v>79</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" ht="14.4" spans="1:4">
       <c r="A36" s="18"/>
       <c r="B36" s="11" t="s">
         <v>82</v>
@@ -3441,7 +3441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" ht="14.4" spans="1:4">
       <c r="A37" s="18" t="s">
         <v>84</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" ht="14.4" spans="1:4">
       <c r="A38" s="18"/>
       <c r="B38" s="19" t="s">
         <v>87</v>
@@ -3467,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" ht="14.4" spans="1:4">
       <c r="A39" s="18" t="s">
         <v>89</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" ht="14.4" spans="1:4">
       <c r="A40" s="18"/>
       <c r="B40" s="11" t="s">
         <v>92</v>
@@ -3493,7 +3493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="14.4" spans="1:4">
       <c r="A41" s="18" t="s">
         <v>94</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" ht="14.4" spans="1:4">
       <c r="A42" s="18"/>
       <c r="B42" s="11" t="s">
         <v>97</v>
@@ -3519,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="14.4" spans="1:4">
       <c r="A43" s="18" t="s">
         <v>99</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="14.4" spans="1:4">
       <c r="A44" s="18"/>
       <c r="B44" s="11" t="s">
         <v>102</v>
@@ -3545,7 +3545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" ht="14.4" spans="1:4">
       <c r="A45" s="18" t="s">
         <v>104</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" ht="14.4" spans="1:4">
       <c r="A46" s="18"/>
       <c r="B46" s="11" t="s">
         <v>107</v>
@@ -3571,7 +3571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" ht="14.4" spans="1:4">
       <c r="A47" s="18" t="s">
         <v>109</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" ht="14.4" spans="1:4">
       <c r="A48" s="18"/>
       <c r="B48" s="11" t="s">
         <v>112</v>
@@ -3597,7 +3597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="14.4" spans="1:4">
       <c r="A49" s="18" t="s">
         <v>114</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="14.4" spans="1:4">
       <c r="A50" s="18"/>
       <c r="B50" s="11" t="s">
         <v>117</v>
@@ -3623,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="14.4" spans="1:4">
       <c r="A51" s="18" t="s">
         <v>119</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="14.4" spans="1:4">
       <c r="A52" s="18"/>
       <c r="B52" s="11" t="s">
         <v>122</v>
@@ -3649,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" ht="14.4" spans="1:4">
       <c r="A53" s="18" t="s">
         <v>124</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" ht="14.4" spans="1:4">
       <c r="A54" s="18"/>
       <c r="B54" s="11" t="s">
         <v>127</v>
@@ -3675,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" ht="14.4" spans="1:4">
       <c r="A55" s="18" t="s">
         <v>129</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" ht="14.4" spans="1:4">
       <c r="A56" s="18"/>
       <c r="B56" s="11" t="s">
         <v>132</v>
@@ -3701,7 +3701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" ht="14.4" spans="1:4">
       <c r="A57" s="14" t="s">
         <v>133</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="14.4" spans="1:4">
       <c r="A58" s="7"/>
       <c r="B58" s="15" t="s">
         <v>136</v>
@@ -3727,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="14.4" spans="1:4">
       <c r="A59" s="7"/>
       <c r="B59" s="11" t="s">
         <v>137</v>
@@ -3739,7 +3739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="14.4" spans="1:4">
       <c r="A60" s="18" t="s">
         <v>139</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="14.4" spans="1:4">
       <c r="A61" s="18"/>
       <c r="B61" s="11" t="s">
         <v>142</v>
@@ -3765,7 +3765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" ht="14.4" spans="1:4">
       <c r="A62" s="18" t="s">
         <v>144</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" ht="14.4" spans="1:4">
       <c r="A63" s="18"/>
       <c r="B63" s="11" t="s">
         <v>147</v>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" ht="14.4" spans="1:4">
       <c r="A64" s="18" t="s">
         <v>149</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="14.4" spans="1:4">
       <c r="A65" s="18"/>
       <c r="B65" s="11" t="s">
         <v>151</v>
@@ -3817,7 +3817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="14.4" spans="1:4">
       <c r="A66" s="18" t="s">
         <v>153</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="14.4" spans="1:4">
       <c r="A67" s="18"/>
       <c r="B67" s="11" t="s">
         <v>156</v>
@@ -3843,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="14.4" spans="1:4">
       <c r="A68" s="14" t="s">
         <v>158</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="14.4" spans="1:4">
       <c r="A71" s="7"/>
       <c r="B71" s="11" t="s">
         <v>165</v>
@@ -3893,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" ht="14.4" spans="1:4">
       <c r="A72" s="7"/>
       <c r="B72" s="13" t="s">
         <v>167</v>
@@ -3905,7 +3905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" ht="14.4" spans="1:4">
       <c r="A73" s="7"/>
       <c r="B73" s="13" t="s">
         <v>169</v>
@@ -3917,7 +3917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="14.4" spans="1:4">
       <c r="A74" s="7"/>
       <c r="B74" s="11" t="s">
         <v>171</v>
@@ -3929,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" ht="14.4" spans="1:4">
       <c r="A75" s="16"/>
       <c r="B75" s="11" t="s">
         <v>173</v>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" ht="14.4" spans="1:4">
       <c r="A76" s="18" t="s">
         <v>175</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" ht="14.4" spans="1:4">
       <c r="A77" s="18"/>
       <c r="B77" s="11" t="s">
         <v>178</v>
@@ -3979,7 +3979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" ht="14.4" spans="1:4">
       <c r="A79" s="18" t="s">
         <v>182</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="14.4" spans="1:4">
       <c r="A80" s="18"/>
       <c r="B80" s="11" t="s">
         <v>185</v>
@@ -4005,7 +4005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" ht="14.4" spans="1:4">
       <c r="A81" s="18" t="s">
         <v>187</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" ht="14.4" spans="1:4">
       <c r="A82" s="18"/>
       <c r="B82" s="11" t="s">
         <v>190</v>
@@ -4031,7 +4031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" ht="14.4" spans="1:4">
       <c r="A83" s="14" t="s">
         <v>191</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" ht="14.4" spans="1:4">
       <c r="A90" s="16"/>
       <c r="B90" s="11" t="s">
         <v>206</v>
@@ -4129,7 +4129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" ht="14.4" spans="1:4">
       <c r="A91" s="14" t="s">
         <v>208</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" ht="14.4" spans="1:4">
       <c r="A92" s="16"/>
       <c r="B92" s="11" t="s">
         <v>211</v>
@@ -4155,7 +4155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" ht="14.4" spans="1:4">
       <c r="A93" s="14" t="s">
         <v>213</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" ht="14.4" spans="1:4">
       <c r="A94" s="16"/>
       <c r="B94" s="10" t="s">
         <v>216</v>
@@ -4181,7 +4181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" ht="14.4" spans="1:4">
       <c r="A95" s="14" t="s">
         <v>218</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" ht="14.4" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="11" t="s">
         <v>221</v>
@@ -4207,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" ht="14.4" spans="1:4">
       <c r="A97" s="14" t="s">
         <v>223</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" ht="14.4" spans="1:4">
       <c r="A98" s="16"/>
       <c r="B98" s="11" t="s">
         <v>226</v>
@@ -4233,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" ht="14.4" spans="1:4">
       <c r="A99" s="20" t="s">
         <v>228</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" ht="14.4" spans="1:4">
       <c r="A100" s="21"/>
       <c r="B100" s="11" t="s">
         <v>231</v>
@@ -4259,7 +4259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" ht="14.4" spans="1:4">
       <c r="A101" s="14" t="s">
         <v>233</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" ht="14.4" spans="1:4">
       <c r="A102" s="7"/>
       <c r="B102" s="11" t="s">
         <v>236</v>
@@ -4285,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" ht="14.4" spans="1:4">
       <c r="A103" s="7"/>
       <c r="B103" s="22" t="s">
         <v>238</v>
@@ -4297,7 +4297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" ht="14.4" spans="1:4">
       <c r="A104" s="7"/>
       <c r="B104" s="22" t="s">
         <v>240</v>
@@ -4309,7 +4309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="14.4" spans="1:4">
       <c r="A105" s="7"/>
       <c r="B105" s="22" t="s">
         <v>242</v>
@@ -4321,7 +4321,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" ht="14.4" spans="1:4">
       <c r="A106" s="16"/>
       <c r="B106" s="11" t="s">
         <v>245</v>
@@ -4333,7 +4333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" ht="14.4" spans="1:4">
       <c r="A107" s="14" t="s">
         <v>247</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" ht="14.4" spans="1:4">
       <c r="A108" s="7"/>
       <c r="B108" s="11" t="s">
         <v>250</v>
@@ -4359,7 +4359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" ht="14.4" spans="1:4">
       <c r="A109" s="7"/>
       <c r="B109" s="22" t="s">
         <v>252</v>
@@ -4371,7 +4371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" ht="14.4" spans="1:4">
       <c r="A110" s="7"/>
       <c r="B110" s="11" t="s">
         <v>254</v>
@@ -4383,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" ht="14.4" spans="1:4">
       <c r="A111" s="7"/>
       <c r="B111" s="12" t="s">
         <v>256</v>
@@ -4395,7 +4395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" ht="14.4" spans="1:4">
       <c r="A112" s="7"/>
       <c r="B112" s="12" t="s">
         <v>258</v>
@@ -4407,7 +4407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" ht="14.4" spans="1:4">
       <c r="A113" s="7"/>
       <c r="B113" s="12" t="s">
         <v>260</v>
@@ -4431,7 +4431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" ht="14.4" spans="1:4">
       <c r="A115" s="7"/>
       <c r="B115" s="12" t="s">
         <v>264</v>
@@ -4443,7 +4443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" ht="14.4" spans="1:4">
       <c r="A116" s="7"/>
       <c r="B116" s="12" t="s">
         <v>266</v>
@@ -4455,7 +4455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" ht="14.4" spans="1:4">
       <c r="A117" s="7"/>
       <c r="B117" s="12" t="s">
         <v>268</v>
@@ -4467,7 +4467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" ht="14.4" spans="1:4">
       <c r="A118" s="7"/>
       <c r="B118" s="12" t="s">
         <v>270</v>
@@ -4479,7 +4479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" ht="14.4" spans="1:4">
       <c r="A119" s="7"/>
       <c r="B119" s="12" t="s">
         <v>272</v>
@@ -4491,7 +4491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="14.4" spans="1:4">
       <c r="A120" s="7"/>
       <c r="B120" s="12" t="s">
         <v>274</v>
@@ -4503,7 +4503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" ht="14.4" spans="1:4">
       <c r="A121" s="7"/>
       <c r="B121" s="13" t="s">
         <v>276</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D121" s="10"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" ht="14.4" spans="1:4">
       <c r="A122" s="14" t="s">
         <v>278</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" ht="14.4" spans="1:4">
       <c r="A123" s="7"/>
       <c r="B123" s="24" t="s">
         <v>280</v>
@@ -4539,7 +4539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" ht="14.4" spans="1:4">
       <c r="A124" s="7"/>
       <c r="B124" s="24" t="s">
         <v>282</v>
@@ -4566,7 +4566,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" ht="14.4" spans="1:4">
       <c r="A126" s="7"/>
       <c r="B126" s="24" t="s">
         <v>287</v>
@@ -4578,7 +4578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" ht="14.4" spans="1:4">
       <c r="A127" s="7"/>
       <c r="B127" s="24" t="s">
         <v>288</v>
@@ -4590,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" ht="14.4" spans="1:4">
       <c r="A128" s="7"/>
       <c r="B128" s="24" t="s">
         <v>289</v>
@@ -4602,7 +4602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" ht="14.4" spans="1:4">
       <c r="A129" s="7"/>
       <c r="B129" s="24" t="s">
         <v>291</v>
@@ -4614,7 +4614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" ht="14.4" spans="1:4">
       <c r="A130" s="7"/>
       <c r="B130" s="24" t="s">
         <v>293</v>
@@ -4626,7 +4626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" ht="14.4" spans="1:4">
       <c r="A131" s="7"/>
       <c r="B131" s="24" t="s">
         <v>295</v>
@@ -4638,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" ht="14.4" spans="1:4">
       <c r="A132" s="7"/>
       <c r="B132" s="24" t="s">
         <v>297</v>
@@ -4650,7 +4650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" ht="14.4" spans="1:4">
       <c r="A133" s="7"/>
       <c r="B133" s="24" t="s">
         <v>299</v>
@@ -4662,7 +4662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" ht="14.4" spans="1:4">
       <c r="A134" s="7"/>
       <c r="B134" s="24" t="s">
         <v>301</v>
@@ -4674,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" ht="14.4" spans="1:4">
       <c r="A135" s="7"/>
       <c r="B135" s="13" t="s">
         <v>303</v>
@@ -4686,7 +4686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" ht="14.4" spans="1:4">
       <c r="A136" s="14" t="s">
         <v>305</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" ht="14.4" spans="1:4">
       <c r="A137" s="16"/>
       <c r="B137" s="11" t="s">
         <v>308</v>
@@ -4764,7 +4764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" ht="14.4" spans="1:4">
       <c r="A142" s="18" t="s">
         <v>320</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" ht="14.4" spans="1:4">
       <c r="A143" s="18"/>
       <c r="B143" s="11" t="s">
         <v>323</v>
@@ -4790,7 +4790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" ht="14.4" spans="1:4">
       <c r="A144" s="14" t="s">
         <v>325</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" ht="14.4" spans="1:4">
       <c r="A149" s="28" t="s">
         <v>335</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" ht="14.4" spans="1:4">
       <c r="A150" s="29"/>
       <c r="B150" s="11" t="s">
         <v>338</v>
@@ -4878,7 +4878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" ht="14.4" spans="1:4">
       <c r="A151" s="29"/>
       <c r="B151" s="11" t="s">
         <v>340</v>
@@ -4890,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" ht="14.4" spans="1:4">
       <c r="A152" s="29"/>
       <c r="B152" s="11" t="s">
         <v>342</v>
@@ -4902,7 +4902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" ht="14.4" spans="1:4">
       <c r="A153" s="29"/>
       <c r="B153" s="11" t="s">
         <v>95</v>
@@ -4926,7 +4926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" ht="14.4" spans="1:4">
       <c r="A155" s="28" t="s">
         <v>346</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" ht="14.4" spans="1:4">
       <c r="A156" s="29"/>
       <c r="B156" s="11" t="s">
         <v>349</v>
@@ -4952,7 +4952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" ht="14.4" spans="1:4">
       <c r="A157" s="29"/>
       <c r="B157" s="22" t="s">
         <v>351</v>
@@ -4964,7 +4964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" ht="14.4" spans="1:4">
       <c r="A158" s="28" t="s">
         <v>353</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" ht="14.4" spans="1:4">
       <c r="A159" s="29"/>
       <c r="B159" s="11" t="s">
         <v>17</v>
@@ -4990,7 +4990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" ht="14.4" spans="1:4">
       <c r="A160" s="29"/>
       <c r="B160" s="11">
         <v>22</v>
@@ -5002,7 +5002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" ht="14.4" spans="1:4">
       <c r="A161" s="31" t="s">
         <v>358</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" ht="14.4" spans="1:4">
       <c r="A162" s="31" t="s">
         <v>361</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" ht="14.4" spans="1:4">
       <c r="A163" s="31" t="s">
         <v>364</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" ht="14.4" spans="1:4">
       <c r="A164" s="31" t="s">
         <v>367</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" ht="14.4" spans="1:4">
       <c r="A165" s="31" t="s">
         <v>370</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" ht="14.4" spans="1:4">
       <c r="A167" s="28" t="s">
         <v>376</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" ht="14.4" spans="1:4">
       <c r="A168" s="30"/>
       <c r="B168" s="11" t="s">
         <v>379</v>
@@ -5112,7 +5112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" ht="14.4" spans="1:4">
       <c r="A169" s="31" t="s">
         <v>381</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" ht="14.4" spans="1:4">
       <c r="A170" s="31" t="s">
         <v>382</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" ht="14.4" spans="1:4">
       <c r="A171" s="28" t="s">
         <v>385</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" ht="14.4" spans="1:4">
       <c r="A172" s="30"/>
       <c r="B172" s="24" t="s">
         <v>388</v>
@@ -5180,7 +5180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" ht="14.4" spans="1:4">
       <c r="A174" s="30"/>
       <c r="B174" s="24" t="s">
         <v>393</v>
@@ -5206,7 +5206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" ht="14.4" spans="1:4">
       <c r="A176" s="31" t="s">
         <v>398</v>
       </c>
